--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T07:43:46+00:00</t>
+    <t>2025-10-24T09:56:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T09:56:53+00:00</t>
+    <t>2025-10-27T08:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/QuestionnaireResponse</t>
+    <t>http://hl7.org/fhir/StructureDefinition/QuestionnaireResponse|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -630,7 +630,7 @@
     <t>TDDUIQRParticipant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-qr-participant}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-qr-participant|2.0.0}
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
     <t>QuestionnaireResponse.extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.0.0)
 </t>
   </si>
   <si>
@@ -760,7 +760,7 @@
     <t>TDDUIAttachment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment|2.0.0}
 </t>
   </si>
   <si>
@@ -779,7 +779,7 @@
     <t>TDDUIComment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment|2.0.0}
 </t>
   </si>
   <si>
@@ -1117,7 +1117,7 @@
 Focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.0.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.0.0)
 </t>
   </si>
   <si>
@@ -1148,7 +1148,7 @@
     <t>QuestionnaireResponse.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-evenement)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-evenement|2.0.0)
 </t>
   </si>
   <si>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T08:54:54+00:00</t>
+    <t>2025-10-27T14:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/QuestionnaireResponse|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/QuestionnaireResponse</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -630,7 +630,7 @@
     <t>TDDUIQRParticipant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-qr-participant|2.0.0}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-qr-participant}
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
     <t>QuestionnaireResponse.extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.0.0)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner)
 </t>
   </si>
   <si>
@@ -760,7 +760,7 @@
     <t>TDDUIAttachment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment|2.0.0}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment}
 </t>
   </si>
   <si>
@@ -779,7 +779,7 @@
     <t>TDDUIComment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment|2.0.0}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment}
 </t>
   </si>
   <si>
@@ -1117,7 +1117,7 @@
 Focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.0.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.0.0)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins)
 </t>
   </si>
   <si>
@@ -1148,7 +1148,7 @@
     <t>QuestionnaireResponse.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-evenement|2.0.0)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-evenement)
 </t>
   </si>
   <si>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T14:34:13+00:00</t>
+    <t>2025-10-28T10:21:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T10:21:51+00:00</t>
+    <t>2025-10-28T15:41:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:41:17+00:00</t>
+    <t>2025-10-29T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
